--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/03.BaoGiaBH/BG210424_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/03.BaoGiaBH/BG210424_TarisHN.xlsx
@@ -107,9 +107,6 @@
     <t>Hà Nội, ngày 24 tháng 04 Năm 2021</t>
   </si>
   <si>
-    <t>TG102LE</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>Tên cty/ cá nhân: Đại lý Taris Hà Nội</t>
+  </si>
+  <si>
+    <t>TG102V</t>
   </si>
 </sst>
 </file>
@@ -637,6 +637,54 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -678,54 +726,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="84" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:E16"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1112,94 +1112,94 @@
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="31" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
+      <c r="B7" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="12"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -1207,13 +1207,13 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="13"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
@@ -1221,13 +1221,13 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="13"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -1235,13 +1235,13 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="13"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -1250,13 +1250,13 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="14"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -1301,22 +1301,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C13" s="29">
         <v>866192037845730</v>
       </c>
       <c r="D13" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="F13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="G13" s="28" t="s">
         <v>30</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>31</v>
       </c>
       <c r="H13" s="28">
         <v>1</v>
@@ -1330,17 +1330,17 @@
       <c r="AA13" s="15"/>
     </row>
     <row r="14" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="27">
         <v>220000</v>
       </c>
@@ -1361,10 +1361,10 @@
     </row>
     <row r="16" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -1373,31 +1373,31 @@
       <c r="AA16" s="15"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="24"/>
       <c r="AA17" s="15"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
       <c r="AA18" s="15"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
@@ -1424,20 +1424,20 @@
       <c r="AA22" s="15"/>
     </row>
     <row r="23" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44" t="s">
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
       <c r="AA23" s="15"/>
     </row>
     <row r="24" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -1509,6 +1509,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E1:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="A23:E23"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="B8:C8"/>
@@ -1516,17 +1525,8 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="A23:E23"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E1:J2"/>
-    <mergeCell ref="E3:J3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
